--- a/biology/Médecine/Radiothérapie_externe/Radiothérapie_externe.xlsx
+++ b/biology/Médecine/Radiothérapie_externe/Radiothérapie_externe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Radioth%C3%A9rapie_externe</t>
+          <t>Radiothérapie_externe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La radiothérapie externe est une technique de radiothérapie reposant sur la localisation d'un faisceau de particules sur une partie du patient. Elle est qualifiée d'externe puisque la source des particules est à l'extérieur du corps, contrairement à la curiethérapie, d'invention plus récente, où les sources sont introduites dans le patient.
 La radiothérapie externe exploite principalement des faisceaux de photons, au moyen d'un télécobalt ou d'un accélérateur linéaire de particules, ceux-ci permettant également l'emploi d'électrons. D'autres techniques mobilisent des faisceaux de neutrons, de protons ou d'ions lourds, tel le carbone.
